--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1251791.168655455</v>
+        <v>1248620.881163983</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5016621.944648389</v>
+        <v>5016621.944648388</v>
       </c>
     </row>
     <row r="9">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>182.1337125353747</v>
       </c>
       <c r="G11" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.5715797715652</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.27936201577354</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V11" t="n">
-        <v>307.7923413394275</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.55597978948958</v>
+        <v>83.55597978948957</v>
       </c>
       <c r="H12" t="n">
         <v>31.89934644498295</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.70587412348771</v>
+        <v>44.7058741234877</v>
       </c>
       <c r="T12" t="n">
         <v>124.9458788810276</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>10.77296104106874</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>239.9271657823968</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6040730435755</v>
+        <v>236.0849180516832</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>217.2942808614289</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.27936201577355</v>
+        <v>41.27936201577354</v>
       </c>
       <c r="T14" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>119.1098126140862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.70587412348771</v>
+        <v>44.7058741234877</v>
       </c>
       <c r="T15" t="n">
         <v>124.9458788810276</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>18.58189927754048</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H16" t="n">
         <v>131.2337281429463</v>
       </c>
       <c r="I16" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T16" t="n">
         <v>239.9271657823968</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6040730435755</v>
+        <v>112.5695465098341</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H17" t="n">
-        <v>70.76750984070016</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.8874518549281</v>
+        <v>141.9690522282524</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>107.0807437679058</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.1177378005102</v>
+        <v>134.6093077387057</v>
       </c>
       <c r="H19" t="n">
         <v>131.2337281429463</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.9271657823968</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6040730435755</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>52.86026246995845</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>84.38361097303638</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>163.896765430291</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>128.4917325706076</v>
       </c>
       <c r="T22" t="n">
         <v>239.9271657823968</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2332,7 +2332,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.561099664736</v>
+        <v>313.9574301605504</v>
       </c>
       <c r="H23" t="n">
         <v>267.5715797715652</v>
@@ -2377,7 +2377,7 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V23" t="n">
-        <v>340.432905275873</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2560,7 +2560,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4842593842947</v>
+        <v>67.05662318529888</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>391.763136950679</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2809,7 +2809,7 @@
         <v>395.561099664736</v>
       </c>
       <c r="H29" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.8874518549281</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4842593842947</v>
+        <v>124.7407511019359</v>
       </c>
       <c r="V29" t="n">
-        <v>349.9470174731135</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>381.7122672916466</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3046,7 +3046,7 @@
         <v>395.561099664736</v>
       </c>
       <c r="H32" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T32" t="n">
         <v>209.8874518549281</v>
@@ -3088,13 +3088,13 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>241.9281684883499</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>324.1971072402909</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T35" t="n">
         <v>209.8874518549281</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>306.0468460954084</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.9271657823968</v>
+        <v>223.9412618035667</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V37" t="n">
-        <v>21.94828987807677</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>184.6972190461955</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>238.2159819861208</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.5715797715652</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3666,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>152.0745197329394</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0.517920559391211</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.9271657823968</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>103.7216578860341</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>41.27936201577355</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>92.6580451934141</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>22.59520673841987</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H43" t="n">
-        <v>22.17096985930247</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>29.68303011488083</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H44" t="n">
-        <v>267.5715797715652</v>
+        <v>69.57972407258545</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>158.7670159863461</v>
       </c>
       <c r="G46" t="n">
         <v>163.1177378005102</v>
@@ -4188,22 +4188,22 @@
         <v>143.3999911908438</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.9271657823968</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>71.0294158672736</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1577.334999950653</v>
+        <v>1372.02682385385</v>
       </c>
       <c r="C11" t="n">
-        <v>1577.334999950653</v>
+        <v>933.8843510372735</v>
       </c>
       <c r="D11" t="n">
-        <v>1577.334999950653</v>
+        <v>933.8843510372735</v>
       </c>
       <c r="E11" t="n">
-        <v>1143.560255108948</v>
+        <v>500.1096061955687</v>
       </c>
       <c r="F11" t="n">
-        <v>715.6928255181559</v>
+        <v>316.1361591901397</v>
       </c>
       <c r="G11" t="n">
         <v>316.1361591901397</v>
@@ -5038,55 +5038,55 @@
         <v>45.86183618855861</v>
       </c>
       <c r="I11" t="n">
-        <v>115.0223243057314</v>
+        <v>115.022324305731</v>
       </c>
       <c r="J11" t="n">
-        <v>268.1792013766521</v>
+        <v>268.1792013766517</v>
       </c>
       <c r="K11" t="n">
-        <v>497.7216582812913</v>
+        <v>497.721658281291</v>
       </c>
       <c r="L11" t="n">
-        <v>782.489373603983</v>
+        <v>782.4893736039828</v>
       </c>
       <c r="M11" t="n">
-        <v>1099.348325765038</v>
+        <v>1099.348325765037</v>
       </c>
       <c r="N11" t="n">
         <v>1421.334387037893</v>
       </c>
       <c r="O11" t="n">
-        <v>1725.37669424811</v>
+        <v>1725.376694248109</v>
       </c>
       <c r="P11" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q11" t="n">
-        <v>2179.738261607713</v>
+        <v>2179.738261607712</v>
       </c>
       <c r="R11" t="n">
         <v>2293.09180942793</v>
       </c>
       <c r="S11" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T11" t="n">
-        <v>2293.09180942793</v>
+        <v>2039.387957033282</v>
       </c>
       <c r="U11" t="n">
-        <v>2293.09180942793</v>
+        <v>1780.312947554197</v>
       </c>
       <c r="V11" t="n">
-        <v>1982.19045453962</v>
+        <v>1780.312947554197</v>
       </c>
       <c r="W11" t="n">
-        <v>1577.334999950653</v>
+        <v>1780.312947554197</v>
       </c>
       <c r="X11" t="n">
-        <v>1577.334999950653</v>
+        <v>1780.312947554197</v>
       </c>
       <c r="Y11" t="n">
-        <v>1577.334999950653</v>
+        <v>1372.02682385385</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C12" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D12" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E12" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F12" t="n">
         <v>162.483377839541</v>
@@ -5135,13 +5135,13 @@
         <v>1031.618520229295</v>
       </c>
       <c r="O12" t="n">
-        <v>1308.707380864125</v>
+        <v>1261.337067364202</v>
       </c>
       <c r="P12" t="n">
-        <v>1493.076767284748</v>
+        <v>1445.706453784825</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.322819523846</v>
+        <v>1568.952506023923</v>
       </c>
       <c r="R12" t="n">
         <v>1676.26891337681</v>
@@ -5162,10 +5162,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X12" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y12" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>595.7113705050863</v>
+        <v>730.7665982913176</v>
       </c>
       <c r="C13" t="n">
-        <v>595.7113705050863</v>
+        <v>558.2048867745425</v>
       </c>
       <c r="D13" t="n">
-        <v>429.833377706609</v>
+        <v>392.3268939760652</v>
       </c>
       <c r="E13" t="n">
-        <v>429.833377706609</v>
+        <v>222.5688902268024</v>
       </c>
       <c r="F13" t="n">
-        <v>253.1263236683652</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="G13" t="n">
-        <v>242.2445448390028</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H13" t="n">
-        <v>109.6852234824914</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I13" t="n">
         <v>45.86183618855861</v>
@@ -5202,22 +5202,22 @@
         <v>189.6695076567068</v>
       </c>
       <c r="K13" t="n">
-        <v>558.4711234671629</v>
+        <v>558.471123467163</v>
       </c>
       <c r="L13" t="n">
-        <v>863.929863101554</v>
+        <v>1097.023873694267</v>
       </c>
       <c r="M13" t="n">
-        <v>1431.470085934967</v>
+        <v>1223.908555169198</v>
       </c>
       <c r="N13" t="n">
-        <v>1997.596536443275</v>
+        <v>1347.776202519862</v>
       </c>
       <c r="O13" t="n">
-        <v>2112.0083573313</v>
+        <v>1596.308688496626</v>
       </c>
       <c r="P13" t="n">
-        <v>2209.907435353829</v>
+        <v>2041.714660489497</v>
       </c>
       <c r="Q13" t="n">
         <v>2277.687682472404</v>
@@ -5232,19 +5232,19 @@
         <v>1905.892660970112</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.504708400844</v>
+        <v>1667.423046776492</v>
       </c>
       <c r="V13" t="n">
-        <v>1340.549200271274</v>
+        <v>1667.423046776492</v>
       </c>
       <c r="W13" t="n">
-        <v>1068.522795857566</v>
+        <v>1395.396642362784</v>
       </c>
       <c r="X13" t="n">
-        <v>823.1310411909781</v>
+        <v>1150.004887696196</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.7113705050863</v>
+        <v>922.5852170103046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1151.602610343711</v>
+        <v>1353.688838672396</v>
       </c>
       <c r="C14" t="n">
-        <v>1151.602610343711</v>
+        <v>915.546365855819</v>
       </c>
       <c r="D14" t="n">
-        <v>715.6928255181559</v>
+        <v>479.6365810302634</v>
       </c>
       <c r="E14" t="n">
-        <v>715.6928255181559</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="F14" t="n">
-        <v>715.6928255181559</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="G14" t="n">
-        <v>316.1361591901397</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H14" t="n">
         <v>45.86183618855861</v>
       </c>
       <c r="I14" t="n">
-        <v>115.0223243057315</v>
+        <v>115.0223243057311</v>
       </c>
       <c r="J14" t="n">
-        <v>268.1792013766522</v>
+        <v>268.1792013766519</v>
       </c>
       <c r="K14" t="n">
-        <v>497.7216582812914</v>
+        <v>497.7216582812911</v>
       </c>
       <c r="L14" t="n">
-        <v>782.489373603983</v>
+        <v>782.4893736039829</v>
       </c>
       <c r="M14" t="n">
         <v>1099.348325765037</v>
@@ -5308,22 +5308,22 @@
         <v>2251.395484159472</v>
       </c>
       <c r="T14" t="n">
-        <v>2039.387957033282</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U14" t="n">
-        <v>2039.387957033282</v>
+        <v>1992.320474680387</v>
       </c>
       <c r="V14" t="n">
-        <v>1676.771006967109</v>
+        <v>1992.320474680387</v>
       </c>
       <c r="W14" t="n">
-        <v>1271.915552378142</v>
+        <v>1992.320474680387</v>
       </c>
       <c r="X14" t="n">
-        <v>1271.915552378142</v>
+        <v>1573.178011259698</v>
       </c>
       <c r="Y14" t="n">
-        <v>1151.602610343711</v>
+        <v>1573.178011259698</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>45.86183618855861</v>
       </c>
       <c r="I15" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J15" t="n">
-        <v>170.323240853186</v>
+        <v>196.3869140136436</v>
       </c>
       <c r="K15" t="n">
-        <v>326.2313601937183</v>
+        <v>352.2950333541759</v>
       </c>
       <c r="L15" t="n">
-        <v>535.8690669040166</v>
+        <v>561.9327400644742</v>
       </c>
       <c r="M15" t="n">
-        <v>780.5063826631101</v>
+        <v>806.5700558235677</v>
       </c>
       <c r="N15" t="n">
-        <v>1031.618520229295</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O15" t="n">
-        <v>1261.337067364201</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P15" t="n">
-        <v>1445.706453784825</v>
+        <v>1471.770126945283</v>
       </c>
       <c r="Q15" t="n">
-        <v>1616.322819523846</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R15" t="n">
         <v>1676.26891337681</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>776.1608984223378</v>
+        <v>855.529599848741</v>
       </c>
       <c r="C16" t="n">
-        <v>603.5991869055628</v>
+        <v>855.529599848741</v>
       </c>
       <c r="D16" t="n">
-        <v>437.7211941070855</v>
+        <v>689.6516070502637</v>
       </c>
       <c r="E16" t="n">
-        <v>437.7211941070855</v>
+        <v>519.893603301001</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0141400688417</v>
+        <v>343.1865492627572</v>
       </c>
       <c r="G16" t="n">
-        <v>242.2445448390028</v>
+        <v>178.4211575450701</v>
       </c>
       <c r="H16" t="n">
-        <v>109.6852234824914</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I16" t="n">
         <v>45.86183618855861</v>
       </c>
       <c r="J16" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K16" t="n">
-        <v>283.7126688960274</v>
+        <v>197.1329837313376</v>
       </c>
       <c r="L16" t="n">
-        <v>404.0555373551707</v>
+        <v>444.2606138757728</v>
       </c>
       <c r="M16" t="n">
-        <v>971.5957601885834</v>
+        <v>1011.800836709186</v>
       </c>
       <c r="N16" t="n">
-        <v>1230.420393247152</v>
+        <v>1577.927287217494</v>
       </c>
       <c r="O16" t="n">
-        <v>1764.501463360959</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P16" t="n">
         <v>2209.907435353829</v>
@@ -5463,25 +5463,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S16" t="n">
-        <v>2293.09180942793</v>
+        <v>2148.243333477583</v>
       </c>
       <c r="T16" t="n">
-        <v>2050.741136920459</v>
+        <v>1905.892660970112</v>
       </c>
       <c r="U16" t="n">
-        <v>1772.353184351191</v>
+        <v>1792.186048333916</v>
       </c>
       <c r="V16" t="n">
-        <v>1485.397676221621</v>
+        <v>1792.186048333916</v>
       </c>
       <c r="W16" t="n">
-        <v>1213.371271807913</v>
+        <v>1520.159643920207</v>
       </c>
       <c r="X16" t="n">
-        <v>967.979517141325</v>
+        <v>1274.76788925362</v>
       </c>
       <c r="Y16" t="n">
-        <v>967.979517141325</v>
+        <v>1047.348218567728</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>991.3964270031153</v>
+        <v>1315.103032183835</v>
       </c>
       <c r="C17" t="n">
-        <v>553.2539541865385</v>
+        <v>1315.103032183835</v>
       </c>
       <c r="D17" t="n">
-        <v>117.344169360983</v>
+        <v>879.1932473582797</v>
       </c>
       <c r="E17" t="n">
-        <v>117.344169360983</v>
+        <v>445.4185025165749</v>
       </c>
       <c r="F17" t="n">
-        <v>117.344169360983</v>
+        <v>445.4185025165749</v>
       </c>
       <c r="G17" t="n">
-        <v>117.344169360983</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H17" t="n">
         <v>45.86183618855861</v>
@@ -5524,16 +5524,16 @@
         <v>782.4893736039829</v>
       </c>
       <c r="M17" t="n">
-        <v>1099.348325765038</v>
+        <v>1099.348325765037</v>
       </c>
       <c r="N17" t="n">
-        <v>1421.334387037894</v>
+        <v>1421.334387037893</v>
       </c>
       <c r="O17" t="n">
-        <v>1725.37669424811</v>
+        <v>1725.376694248109</v>
       </c>
       <c r="P17" t="n">
-        <v>1984.869769184645</v>
+        <v>1984.869769184644</v>
       </c>
       <c r="Q17" t="n">
         <v>2179.738261607713</v>
@@ -5542,25 +5542,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S17" t="n">
-        <v>2251.395484159472</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T17" t="n">
-        <v>2039.387957033282</v>
+        <v>2149.68872636909</v>
       </c>
       <c r="U17" t="n">
-        <v>1780.312947554197</v>
+        <v>2149.68872636909</v>
       </c>
       <c r="V17" t="n">
-        <v>1417.695997488023</v>
+        <v>2149.68872636909</v>
       </c>
       <c r="W17" t="n">
-        <v>1417.695997488023</v>
+        <v>2149.68872636909</v>
       </c>
       <c r="X17" t="n">
-        <v>1417.695997488023</v>
+        <v>2149.68872636909</v>
       </c>
       <c r="Y17" t="n">
-        <v>1417.695997488023</v>
+        <v>1741.402602668743</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>45.86183618855861</v>
       </c>
       <c r="I18" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J18" t="n">
-        <v>170.323240853186</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K18" t="n">
-        <v>373.6016736936418</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L18" t="n">
-        <v>583.2393804039401</v>
+        <v>561.9327400644742</v>
       </c>
       <c r="M18" t="n">
-        <v>827.8766961630338</v>
+        <v>806.5700558235677</v>
       </c>
       <c r="N18" t="n">
-        <v>1078.988833729219</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O18" t="n">
-        <v>1308.707380864125</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P18" t="n">
-        <v>1493.076767284748</v>
+        <v>1471.770126945283</v>
       </c>
       <c r="Q18" t="n">
-        <v>1616.322819523846</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R18" t="n">
         <v>1676.26891337681</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1027.515354585003</v>
+        <v>1063.118304657626</v>
       </c>
       <c r="C19" t="n">
-        <v>919.3529871426737</v>
+        <v>890.5565931408511</v>
       </c>
       <c r="D19" t="n">
-        <v>753.4749943441964</v>
+        <v>724.6786003423738</v>
       </c>
       <c r="E19" t="n">
-        <v>583.7169905949337</v>
+        <v>554.920596593111</v>
       </c>
       <c r="F19" t="n">
-        <v>407.0099365566899</v>
+        <v>378.2135425548672</v>
       </c>
       <c r="G19" t="n">
         <v>242.2445448390028</v>
@@ -5679,19 +5679,19 @@
         <v>197.1329837313375</v>
       </c>
       <c r="L19" t="n">
-        <v>317.4758521904808</v>
+        <v>735.6857339584418</v>
       </c>
       <c r="M19" t="n">
-        <v>843.6080618448532</v>
+        <v>1303.225956791855</v>
       </c>
       <c r="N19" t="n">
-        <v>1409.734512353162</v>
+        <v>1869.352407300163</v>
       </c>
       <c r="O19" t="n">
-        <v>1943.815582466968</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P19" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q19" t="n">
         <v>2277.687682472404</v>
@@ -5703,22 +5703,22 @@
         <v>2293.09180942793</v>
       </c>
       <c r="T19" t="n">
-        <v>2050.741136920459</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="U19" t="n">
-        <v>1772.353184351191</v>
+        <v>2014.703856858662</v>
       </c>
       <c r="V19" t="n">
-        <v>1772.353184351191</v>
+        <v>1727.748348729093</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.326779937482</v>
+        <v>1727.748348729093</v>
       </c>
       <c r="X19" t="n">
-        <v>1254.935025270895</v>
+        <v>1482.356594062505</v>
       </c>
       <c r="Y19" t="n">
-        <v>1027.515354585003</v>
+        <v>1254.936923376613</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1149.467570359861</v>
+        <v>1781.556268263188</v>
       </c>
       <c r="C20" t="n">
-        <v>1149.467570359861</v>
+        <v>1343.413795446611</v>
       </c>
       <c r="D20" t="n">
-        <v>1149.467570359861</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="E20" t="n">
-        <v>715.6928255181559</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F20" t="n">
-        <v>715.6928255181559</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="G20" t="n">
-        <v>316.1361591901397</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H20" t="n">
         <v>45.86183618855861</v>
       </c>
       <c r="I20" t="n">
-        <v>115.0223243057314</v>
+        <v>115.0223243057313</v>
       </c>
       <c r="J20" t="n">
-        <v>268.1792013766521</v>
+        <v>268.179201376652</v>
       </c>
       <c r="K20" t="n">
-        <v>497.7216582812913</v>
+        <v>497.7216582812912</v>
       </c>
       <c r="L20" t="n">
-        <v>782.489373603983</v>
+        <v>782.4893736039829</v>
       </c>
       <c r="M20" t="n">
-        <v>1099.348325765038</v>
+        <v>1099.348325765037</v>
       </c>
       <c r="N20" t="n">
         <v>1421.334387037893</v>
       </c>
       <c r="O20" t="n">
-        <v>1725.37669424811</v>
+        <v>1725.376694248109</v>
       </c>
       <c r="P20" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q20" t="n">
-        <v>2179.738261607713</v>
+        <v>2179.738261607712</v>
       </c>
       <c r="R20" t="n">
         <v>2293.09180942793</v>
@@ -5785,19 +5785,19 @@
         <v>2293.09180942793</v>
       </c>
       <c r="U20" t="n">
-        <v>2034.016799948845</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="V20" t="n">
-        <v>1980.622595433735</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="W20" t="n">
-        <v>1575.767140844769</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="X20" t="n">
-        <v>1575.767140844769</v>
+        <v>2207.855838748096</v>
       </c>
       <c r="Y20" t="n">
-        <v>1575.767140844769</v>
+        <v>2207.855838748096</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>170.323240853186</v>
       </c>
       <c r="K21" t="n">
-        <v>373.6016736936418</v>
+        <v>326.2313601937183</v>
       </c>
       <c r="L21" t="n">
-        <v>583.2393804039401</v>
+        <v>535.8690669040166</v>
       </c>
       <c r="M21" t="n">
-        <v>827.8766961630338</v>
+        <v>780.5063826631101</v>
       </c>
       <c r="N21" t="n">
-        <v>1078.988833729219</v>
+        <v>1031.618520229295</v>
       </c>
       <c r="O21" t="n">
-        <v>1308.707380864125</v>
+        <v>1261.337067364201</v>
       </c>
       <c r="P21" t="n">
-        <v>1493.076767284748</v>
+        <v>1445.706453784825</v>
       </c>
       <c r="Q21" t="n">
-        <v>1616.322819523846</v>
+        <v>1568.952506023922</v>
       </c>
       <c r="R21" t="n">
         <v>1676.26891337681</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>548.741227736446</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="C22" t="n">
-        <v>376.179516219671</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="D22" t="n">
-        <v>210.6272279062457</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="E22" t="n">
-        <v>210.6272279062457</v>
+        <v>418.9515988772466</v>
       </c>
       <c r="F22" t="n">
-        <v>210.6272279062457</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="G22" t="n">
-        <v>45.86183618855861</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="H22" t="n">
-        <v>45.86183618855861</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="I22" t="n">
         <v>45.86183618855861</v>
@@ -5916,19 +5916,19 @@
         <v>197.1329837313375</v>
       </c>
       <c r="L22" t="n">
-        <v>369.2164863995815</v>
+        <v>735.6857339584418</v>
       </c>
       <c r="M22" t="n">
-        <v>496.1011678745115</v>
+        <v>1303.225956791855</v>
       </c>
       <c r="N22" t="n">
-        <v>1062.22761838282</v>
+        <v>1869.352407300163</v>
       </c>
       <c r="O22" t="n">
-        <v>1596.308688496626</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P22" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q22" t="n">
         <v>2277.687682472404</v>
@@ -5937,25 +5937,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S22" t="n">
-        <v>2293.09180942793</v>
+        <v>2163.302180568731</v>
       </c>
       <c r="T22" t="n">
-        <v>2050.741136920459</v>
+        <v>1920.951508061259</v>
       </c>
       <c r="U22" t="n">
-        <v>1772.353184351191</v>
+        <v>1642.563555491991</v>
       </c>
       <c r="V22" t="n">
-        <v>1485.397676221621</v>
+        <v>1355.608047362422</v>
       </c>
       <c r="W22" t="n">
-        <v>1213.371271807913</v>
+        <v>1083.581642948713</v>
       </c>
       <c r="X22" t="n">
-        <v>967.979517141325</v>
+        <v>838.1898882821256</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.5598464554332</v>
+        <v>610.7702175962338</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2497.249093781344</v>
+        <v>2414.821144787217</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.106620964767</v>
+        <v>1976.67867197064</v>
       </c>
       <c r="D23" t="n">
-        <v>1623.196836139212</v>
+        <v>1540.768887145085</v>
       </c>
       <c r="E23" t="n">
-        <v>1189.422091297507</v>
+        <v>1106.99414230338</v>
       </c>
       <c r="F23" t="n">
-        <v>761.5546617067146</v>
+        <v>679.1267127125875</v>
       </c>
       <c r="G23" t="n">
         <v>361.9979953786982</v>
@@ -5989,25 +5989,25 @@
         <v>160.8841604942899</v>
       </c>
       <c r="J23" t="n">
-        <v>314.0410375652105</v>
+        <v>749.2957250181285</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5834944698497</v>
+        <v>1813.188473880945</v>
       </c>
       <c r="L23" t="n">
-        <v>828.3512097925415</v>
+        <v>2906.427118278858</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.210161953596</v>
+        <v>3223.286070439912</v>
       </c>
       <c r="N23" t="n">
-        <v>1467.196223226452</v>
+        <v>3545.272131712768</v>
       </c>
       <c r="O23" t="n">
-        <v>2602.276668893277</v>
+        <v>3849.314438922983</v>
       </c>
       <c r="P23" t="n">
-        <v>3690.079618663208</v>
+        <v>4108.807513859518</v>
       </c>
       <c r="Q23" t="n">
         <v>4303.676006282586</v>
@@ -6025,16 +6025,16 @@
         <v>4073.404756982127</v>
       </c>
       <c r="V23" t="n">
-        <v>3729.533135491346</v>
+        <v>4073.404756982127</v>
       </c>
       <c r="W23" t="n">
-        <v>3324.67768090238</v>
+        <v>3668.54930239316</v>
       </c>
       <c r="X23" t="n">
-        <v>2905.53521748169</v>
+        <v>3249.406838972471</v>
       </c>
       <c r="Y23" t="n">
-        <v>2497.249093781344</v>
+        <v>2841.120715272124</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>91.72367237711723</v>
       </c>
       <c r="I24" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J24" t="n">
-        <v>216.1850770417446</v>
+        <v>242.2487502022022</v>
       </c>
       <c r="K24" t="n">
-        <v>372.0931963822769</v>
+        <v>419.4635098822004</v>
       </c>
       <c r="L24" t="n">
-        <v>581.7309030925751</v>
+        <v>629.1012165924986</v>
       </c>
       <c r="M24" t="n">
-        <v>826.3682188516688</v>
+        <v>873.7385323515923</v>
       </c>
       <c r="N24" t="n">
-        <v>1077.480356417853</v>
+        <v>1124.850669917777</v>
       </c>
       <c r="O24" t="n">
-        <v>1307.19890355276</v>
+        <v>1354.569217052684</v>
       </c>
       <c r="P24" t="n">
-        <v>1491.568289973384</v>
+        <v>1538.938603473307</v>
       </c>
       <c r="Q24" t="n">
         <v>1662.184655712404</v>
@@ -6147,22 +6147,22 @@
         <v>91.72367237711723</v>
       </c>
       <c r="J25" t="n">
-        <v>148.9516586805755</v>
+        <v>235.5313438452654</v>
       </c>
       <c r="K25" t="n">
-        <v>452.5705460238144</v>
+        <v>604.3329596557217</v>
       </c>
       <c r="L25" t="n">
-        <v>991.1232962509187</v>
+        <v>1142.885709882826</v>
       </c>
       <c r="M25" t="n">
-        <v>1577.491844906762</v>
+        <v>1729.254258538669</v>
       </c>
       <c r="N25" t="n">
-        <v>2143.61829541507</v>
+        <v>2215.78065067051</v>
       </c>
       <c r="O25" t="n">
-        <v>2677.699365528877</v>
+        <v>2330.192471558535</v>
       </c>
       <c r="P25" t="n">
         <v>2775.598443551406</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2061.339308955789</v>
+        <v>2497.249093781344</v>
       </c>
       <c r="C26" t="n">
-        <v>1623.196836139212</v>
+        <v>2059.106620964767</v>
       </c>
       <c r="D26" t="n">
         <v>1623.196836139212</v>
@@ -6253,25 +6253,25 @@
         <v>4586.183618855861</v>
       </c>
       <c r="S26" t="n">
-        <v>4544.487293587403</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="T26" t="n">
-        <v>4332.479766461212</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="U26" t="n">
-        <v>4073.404756982127</v>
+        <v>4518.449656042428</v>
       </c>
       <c r="V26" t="n">
-        <v>3710.787806915953</v>
+        <v>4155.832705976254</v>
       </c>
       <c r="W26" t="n">
-        <v>3315.067466561732</v>
+        <v>3750.977251387287</v>
       </c>
       <c r="X26" t="n">
-        <v>2895.925003141043</v>
+        <v>3331.834787966598</v>
       </c>
       <c r="Y26" t="n">
-        <v>2487.638879440696</v>
+        <v>2923.548664266251</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>91.72367237711723</v>
       </c>
       <c r="I27" t="n">
-        <v>151.0295634484089</v>
+        <v>124.9658902879513</v>
       </c>
       <c r="J27" t="n">
-        <v>242.2487502022022</v>
+        <v>263.5553905416681</v>
       </c>
       <c r="K27" t="n">
-        <v>398.1568695427345</v>
+        <v>419.4635098822004</v>
       </c>
       <c r="L27" t="n">
-        <v>607.7945762530327</v>
+        <v>629.1012165924986</v>
       </c>
       <c r="M27" t="n">
-        <v>852.4318920121262</v>
+        <v>873.7385323515923</v>
       </c>
       <c r="N27" t="n">
-        <v>1103.544029578311</v>
+        <v>1124.850669917777</v>
       </c>
       <c r="O27" t="n">
-        <v>1333.262576713218</v>
+        <v>1354.569217052684</v>
       </c>
       <c r="P27" t="n">
-        <v>1517.631963133841</v>
+        <v>1538.938603473307</v>
       </c>
       <c r="Q27" t="n">
-        <v>1640.878015372939</v>
+        <v>1662.184655712404</v>
       </c>
       <c r="R27" t="n">
         <v>1722.130749565368</v>
@@ -6384,25 +6384,25 @@
         <v>91.72367237711723</v>
       </c>
       <c r="J28" t="n">
-        <v>148.9516586805755</v>
+        <v>235.5313438452654</v>
       </c>
       <c r="K28" t="n">
-        <v>517.7532744910318</v>
+        <v>604.3329596557217</v>
       </c>
       <c r="L28" t="n">
-        <v>1056.306024718136</v>
+        <v>991.1232962509187</v>
       </c>
       <c r="M28" t="n">
-        <v>1398.177725800752</v>
+        <v>1577.491844906762</v>
       </c>
       <c r="N28" t="n">
-        <v>1964.30417630906</v>
+        <v>2143.61829541507</v>
       </c>
       <c r="O28" t="n">
-        <v>2498.385246422867</v>
+        <v>2677.699365528877</v>
       </c>
       <c r="P28" t="n">
-        <v>2943.791218415738</v>
+        <v>2775.598443551406</v>
       </c>
       <c r="Q28" t="n">
         <v>3011.571465534313</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2061.339308955789</v>
+        <v>2226.974770779763</v>
       </c>
       <c r="C29" t="n">
-        <v>1623.196836139212</v>
+        <v>1788.832297963186</v>
       </c>
       <c r="D29" t="n">
-        <v>1623.196836139212</v>
+        <v>1352.922513137631</v>
       </c>
       <c r="E29" t="n">
-        <v>1189.422091297507</v>
+        <v>919.1477682959257</v>
       </c>
       <c r="F29" t="n">
-        <v>761.5546617067146</v>
+        <v>491.2803387051335</v>
       </c>
       <c r="G29" t="n">
-        <v>361.9979953786982</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="H29" t="n">
         <v>91.72367237711723</v>
@@ -6466,49 +6466,49 @@
         <v>749.2957250181285</v>
       </c>
       <c r="K29" t="n">
-        <v>1813.188473880945</v>
+        <v>1246.850742164174</v>
       </c>
       <c r="L29" t="n">
-        <v>2097.956189203637</v>
+        <v>1531.618457486866</v>
       </c>
       <c r="M29" t="n">
-        <v>2414.815141364692</v>
+        <v>1848.47740964792</v>
       </c>
       <c r="N29" t="n">
-        <v>2736.801202637548</v>
+        <v>2170.463470920776</v>
       </c>
       <c r="O29" t="n">
-        <v>3471.969717717445</v>
+        <v>2474.505778130992</v>
       </c>
       <c r="P29" t="n">
-        <v>3731.46279265398</v>
+        <v>3562.308727900923</v>
       </c>
       <c r="Q29" t="n">
-        <v>4472.830071035643</v>
+        <v>4303.676006282586</v>
       </c>
       <c r="R29" t="n">
         <v>4586.183618855861</v>
       </c>
       <c r="S29" t="n">
-        <v>4544.487293587403</v>
+        <v>4586.183618855861</v>
       </c>
       <c r="T29" t="n">
-        <v>4332.479766461212</v>
+        <v>4374.176091729671</v>
       </c>
       <c r="U29" t="n">
-        <v>4073.404756982127</v>
+        <v>4248.175333040846</v>
       </c>
       <c r="V29" t="n">
-        <v>3719.922921150699</v>
+        <v>3885.558382974673</v>
       </c>
       <c r="W29" t="n">
-        <v>3315.067466561732</v>
+        <v>3480.702928385706</v>
       </c>
       <c r="X29" t="n">
-        <v>2895.925003141043</v>
+        <v>3061.560464965017</v>
       </c>
       <c r="Y29" t="n">
-        <v>2487.638879440696</v>
+        <v>2653.274341264671</v>
       </c>
     </row>
     <row r="30">
@@ -6621,25 +6621,25 @@
         <v>91.72367237711723</v>
       </c>
       <c r="J31" t="n">
-        <v>148.9516586805755</v>
+        <v>235.5313438452654</v>
       </c>
       <c r="K31" t="n">
-        <v>517.7532744910318</v>
+        <v>604.3329596557217</v>
       </c>
       <c r="L31" t="n">
-        <v>1056.306024718136</v>
+        <v>1142.885709882826</v>
       </c>
       <c r="M31" t="n">
-        <v>1398.177725800752</v>
+        <v>1269.770391357756</v>
       </c>
       <c r="N31" t="n">
-        <v>1964.30417630906</v>
+        <v>1796.111401444729</v>
       </c>
       <c r="O31" t="n">
-        <v>2498.385246422867</v>
+        <v>2330.192471558535</v>
       </c>
       <c r="P31" t="n">
-        <v>2943.791218415738</v>
+        <v>2775.598443551406</v>
       </c>
       <c r="Q31" t="n">
         <v>3011.571465534313</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2497.249093781344</v>
+        <v>2226.974770779763</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.106620964767</v>
+        <v>1788.832297963186</v>
       </c>
       <c r="D32" t="n">
-        <v>1623.196836139212</v>
+        <v>1352.922513137631</v>
       </c>
       <c r="E32" t="n">
-        <v>1189.422091297507</v>
+        <v>919.1477682959257</v>
       </c>
       <c r="F32" t="n">
-        <v>761.5546617067146</v>
+        <v>491.2803387051335</v>
       </c>
       <c r="G32" t="n">
-        <v>361.9979953786982</v>
+        <v>91.72367237711723</v>
       </c>
       <c r="H32" t="n">
         <v>91.72367237711723</v>
@@ -6703,16 +6703,16 @@
         <v>749.2957250181285</v>
       </c>
       <c r="K32" t="n">
-        <v>978.8381819227676</v>
+        <v>1246.850742164174</v>
       </c>
       <c r="L32" t="n">
-        <v>1263.605897245459</v>
+        <v>1531.618457486866</v>
       </c>
       <c r="M32" t="n">
-        <v>1580.464849406514</v>
+        <v>1848.47740964792</v>
       </c>
       <c r="N32" t="n">
-        <v>1902.45091067937</v>
+        <v>2170.463470920776</v>
       </c>
       <c r="O32" t="n">
         <v>2474.505778130992</v>
@@ -6727,25 +6727,25 @@
         <v>4586.183618855861</v>
       </c>
       <c r="S32" t="n">
-        <v>4586.183618855861</v>
+        <v>4544.487293587403</v>
       </c>
       <c r="T32" t="n">
-        <v>4374.176091729671</v>
+        <v>4332.479766461212</v>
       </c>
       <c r="U32" t="n">
-        <v>4115.101082250585</v>
+        <v>4073.404756982127</v>
       </c>
       <c r="V32" t="n">
-        <v>4115.101082250585</v>
+        <v>3710.787806915953</v>
       </c>
       <c r="W32" t="n">
-        <v>3710.245627661619</v>
+        <v>3305.932352326987</v>
       </c>
       <c r="X32" t="n">
-        <v>3291.103164240929</v>
+        <v>3061.560464965017</v>
       </c>
       <c r="Y32" t="n">
-        <v>2882.817040540583</v>
+        <v>2653.274341264671</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>91.72367237711723</v>
       </c>
       <c r="I33" t="n">
-        <v>124.9658902879513</v>
+        <v>151.0295634484089</v>
       </c>
       <c r="J33" t="n">
-        <v>216.1850770417446</v>
+        <v>242.2487502022022</v>
       </c>
       <c r="K33" t="n">
-        <v>372.0931963822769</v>
+        <v>398.1568695427345</v>
       </c>
       <c r="L33" t="n">
-        <v>581.7309030925751</v>
+        <v>607.7945762530327</v>
       </c>
       <c r="M33" t="n">
-        <v>826.3682188516688</v>
+        <v>852.4318920121262</v>
       </c>
       <c r="N33" t="n">
-        <v>1077.480356417853</v>
+        <v>1103.544029578311</v>
       </c>
       <c r="O33" t="n">
-        <v>1307.19890355276</v>
+        <v>1333.262576713218</v>
       </c>
       <c r="P33" t="n">
-        <v>1538.938603473307</v>
+        <v>1517.631963133841</v>
       </c>
       <c r="Q33" t="n">
-        <v>1662.184655712404</v>
+        <v>1640.878015372939</v>
       </c>
       <c r="R33" t="n">
         <v>1722.130749565368</v>
@@ -6858,25 +6858,25 @@
         <v>91.72367237711723</v>
       </c>
       <c r="J34" t="n">
-        <v>148.9516586805755</v>
+        <v>179.2132656784839</v>
       </c>
       <c r="K34" t="n">
-        <v>242.9948199198962</v>
+        <v>273.2564269178046</v>
       </c>
       <c r="L34" t="n">
-        <v>643.6164022805769</v>
+        <v>811.8091771449089</v>
       </c>
       <c r="M34" t="n">
-        <v>1229.98495093642</v>
+        <v>1398.177725800752</v>
       </c>
       <c r="N34" t="n">
-        <v>1796.111401444729</v>
+        <v>1964.30417630906</v>
       </c>
       <c r="O34" t="n">
-        <v>2330.192471558535</v>
+        <v>2498.385246422867</v>
       </c>
       <c r="P34" t="n">
-        <v>2775.598443551406</v>
+        <v>2943.791218415738</v>
       </c>
       <c r="Q34" t="n">
         <v>3011.571465534313</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1345.646483437632</v>
+        <v>1634.532502444315</v>
       </c>
       <c r="C35" t="n">
-        <v>907.5040106210556</v>
+        <v>1634.532502444315</v>
       </c>
       <c r="D35" t="n">
-        <v>907.5040106210556</v>
+        <v>1307.060676949072</v>
       </c>
       <c r="E35" t="n">
-        <v>473.7292657793508</v>
+        <v>873.2859321073672</v>
       </c>
       <c r="F35" t="n">
-        <v>45.86183618855861</v>
+        <v>445.4185025165749</v>
       </c>
       <c r="G35" t="n">
         <v>45.86183618855861</v>
@@ -6934,16 +6934,16 @@
         <v>45.86183618855861</v>
       </c>
       <c r="I35" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057312</v>
       </c>
       <c r="J35" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766522</v>
       </c>
       <c r="K35" t="n">
-        <v>497.7216582812912</v>
+        <v>497.7216582812914</v>
       </c>
       <c r="L35" t="n">
-        <v>782.4893736039835</v>
+        <v>782.4893736039832</v>
       </c>
       <c r="M35" t="n">
         <v>1099.348325765038</v>
@@ -6955,7 +6955,7 @@
         <v>1725.37669424811</v>
       </c>
       <c r="P35" t="n">
-        <v>1984.869769184645</v>
+        <v>1984.869769184644</v>
       </c>
       <c r="Q35" t="n">
         <v>2179.738261607713</v>
@@ -6964,25 +6964,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S35" t="n">
-        <v>2293.09180942793</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="T35" t="n">
-        <v>2081.084282301741</v>
+        <v>2039.387957033282</v>
       </c>
       <c r="U35" t="n">
-        <v>2081.084282301741</v>
+        <v>2039.387957033282</v>
       </c>
       <c r="V35" t="n">
-        <v>1771.94605392254</v>
+        <v>2039.387957033282</v>
       </c>
       <c r="W35" t="n">
-        <v>1771.94605392254</v>
+        <v>1634.532502444315</v>
       </c>
       <c r="X35" t="n">
-        <v>1771.94605392254</v>
+        <v>1634.532502444315</v>
       </c>
       <c r="Y35" t="n">
-        <v>1771.94605392254</v>
+        <v>1634.532502444315</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>45.86183618855861</v>
       </c>
       <c r="I36" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J36" t="n">
-        <v>170.323240853186</v>
+        <v>196.3869140136435</v>
       </c>
       <c r="K36" t="n">
-        <v>326.2313601937183</v>
+        <v>352.2950333541758</v>
       </c>
       <c r="L36" t="n">
-        <v>535.8690669040166</v>
+        <v>561.9327400644742</v>
       </c>
       <c r="M36" t="n">
-        <v>827.8766961630338</v>
+        <v>806.5700558235677</v>
       </c>
       <c r="N36" t="n">
-        <v>1078.988833729219</v>
+        <v>1057.682193389752</v>
       </c>
       <c r="O36" t="n">
-        <v>1308.707380864125</v>
+        <v>1287.400740524659</v>
       </c>
       <c r="P36" t="n">
-        <v>1493.076767284748</v>
+        <v>1471.770126945283</v>
       </c>
       <c r="Q36" t="n">
-        <v>1616.322819523846</v>
+        <v>1595.01617918438</v>
       </c>
       <c r="R36" t="n">
         <v>1676.26891337681</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.914698659449</v>
+        <v>564.8886054928403</v>
       </c>
       <c r="C37" t="n">
-        <v>919.3529871426737</v>
+        <v>392.3268939760652</v>
       </c>
       <c r="D37" t="n">
-        <v>753.4749943441964</v>
+        <v>392.3268939760652</v>
       </c>
       <c r="E37" t="n">
-        <v>583.7169905949337</v>
+        <v>222.5688902268024</v>
       </c>
       <c r="F37" t="n">
-        <v>407.0099365566899</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="G37" t="n">
-        <v>242.2445448390028</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="H37" t="n">
-        <v>109.6852234824914</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="I37" t="n">
         <v>45.86183618855861</v>
@@ -7101,19 +7101,19 @@
         <v>197.1329837313375</v>
       </c>
       <c r="L37" t="n">
-        <v>317.4758521904808</v>
+        <v>537.4092612639138</v>
       </c>
       <c r="M37" t="n">
-        <v>885.0160750238936</v>
+        <v>664.2939427388438</v>
       </c>
       <c r="N37" t="n">
-        <v>1062.22761838282</v>
+        <v>1230.420393247152</v>
       </c>
       <c r="O37" t="n">
-        <v>1596.308688496626</v>
+        <v>1764.501463360959</v>
       </c>
       <c r="P37" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q37" t="n">
         <v>2277.687682472404</v>
@@ -7125,22 +7125,22 @@
         <v>2293.09180942793</v>
       </c>
       <c r="T37" t="n">
-        <v>2050.741136920459</v>
+        <v>2066.888514676853</v>
       </c>
       <c r="U37" t="n">
-        <v>2050.741136920459</v>
+        <v>1788.500562107585</v>
       </c>
       <c r="V37" t="n">
-        <v>2028.571147144624</v>
+        <v>1501.545053978015</v>
       </c>
       <c r="W37" t="n">
-        <v>1756.544742730915</v>
+        <v>1229.518649564307</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.152988064328</v>
+        <v>984.1268948977192</v>
       </c>
       <c r="Y37" t="n">
-        <v>1283.733317378436</v>
+        <v>756.7072242118275</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>956.3150295445406</v>
+        <v>919.9140938306907</v>
       </c>
       <c r="C38" t="n">
-        <v>956.3150295445406</v>
+        <v>481.7716210141141</v>
       </c>
       <c r="D38" t="n">
-        <v>715.6928255181559</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="E38" t="n">
-        <v>715.6928255181559</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="F38" t="n">
-        <v>715.6928255181559</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G38" t="n">
-        <v>316.1361591901397</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H38" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I38" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057311</v>
       </c>
       <c r="J38" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766517</v>
       </c>
       <c r="K38" t="n">
-        <v>497.7216582812912</v>
+        <v>497.721658281291</v>
       </c>
       <c r="L38" t="n">
-        <v>782.4893736039829</v>
+        <v>782.4893736039826</v>
       </c>
       <c r="M38" t="n">
         <v>1099.348325765037</v>
@@ -7201,25 +7201,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S38" t="n">
-        <v>2251.395484159472</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T38" t="n">
-        <v>2039.387957033282</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="U38" t="n">
-        <v>1780.312947554197</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="V38" t="n">
-        <v>1780.312947554197</v>
+        <v>1930.474859361756</v>
       </c>
       <c r="W38" t="n">
-        <v>1375.45749296523</v>
+        <v>1525.61940477279</v>
       </c>
       <c r="X38" t="n">
-        <v>956.3150295445406</v>
+        <v>1106.4769413521</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.3150295445406</v>
+        <v>1106.4769413521</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>541.5343809132302</v>
+        <v>541.5343809132301</v>
       </c>
       <c r="C39" t="n">
         <v>435.0779197498724</v>
       </c>
       <c r="D39" t="n">
-        <v>339.9876308964257</v>
+        <v>339.9876308964256</v>
       </c>
       <c r="E39" t="n">
-        <v>245.8672162233794</v>
+        <v>245.8672162233793</v>
       </c>
       <c r="F39" t="n">
         <v>162.483377839541</v>
       </c>
       <c r="G39" t="n">
-        <v>78.08339825419796</v>
+        <v>78.08339825419795</v>
       </c>
       <c r="H39" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I39" t="n">
-        <v>105.1677272598503</v>
+        <v>79.10405409939268</v>
       </c>
       <c r="J39" t="n">
-        <v>196.3869140136435</v>
+        <v>217.6935543531096</v>
       </c>
       <c r="K39" t="n">
-        <v>352.2950333541758</v>
+        <v>373.6016736936418</v>
       </c>
       <c r="L39" t="n">
-        <v>561.9327400644742</v>
+        <v>583.2393804039401</v>
       </c>
       <c r="M39" t="n">
-        <v>806.5700558235677</v>
+        <v>827.8766961630338</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.682193389752</v>
+        <v>1078.988833729219</v>
       </c>
       <c r="O39" t="n">
-        <v>1287.400740524659</v>
+        <v>1308.707380864125</v>
       </c>
       <c r="P39" t="n">
-        <v>1471.770126945283</v>
+        <v>1493.076767284748</v>
       </c>
       <c r="Q39" t="n">
-        <v>1595.01617918438</v>
+        <v>1616.322819523846</v>
       </c>
       <c r="R39" t="n">
         <v>1676.26891337681</v>
@@ -7295,10 +7295,10 @@
         <v>944.1914969748925</v>
       </c>
       <c r="X39" t="n">
-        <v>789.3240612137726</v>
+        <v>789.3240612137724</v>
       </c>
       <c r="Y39" t="n">
-        <v>662.8382819929933</v>
+        <v>662.8382819929932</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>927.6724590219549</v>
+        <v>548.7412277364456</v>
       </c>
       <c r="C40" t="n">
-        <v>755.1107475051798</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="D40" t="n">
-        <v>589.2327547067025</v>
+        <v>376.1795162196705</v>
       </c>
       <c r="E40" t="n">
-        <v>419.4747509574398</v>
+        <v>222.5688902268024</v>
       </c>
       <c r="F40" t="n">
-        <v>242.767696919196</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="G40" t="n">
-        <v>242.2445448390028</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="H40" t="n">
-        <v>109.6852234824914</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="I40" t="n">
-        <v>45.86183618855861</v>
+        <v>45.8618361885586</v>
       </c>
       <c r="J40" t="n">
-        <v>189.6695076567068</v>
+        <v>103.0898224920169</v>
       </c>
       <c r="K40" t="n">
-        <v>558.4711234671629</v>
+        <v>197.1329837313375</v>
       </c>
       <c r="L40" t="n">
-        <v>1097.023873694267</v>
+        <v>444.2606138757724</v>
       </c>
       <c r="M40" t="n">
-        <v>1223.908555169197</v>
+        <v>1011.800836709185</v>
       </c>
       <c r="N40" t="n">
-        <v>1650.089642472934</v>
+        <v>1577.927287217494</v>
       </c>
       <c r="O40" t="n">
-        <v>1764.501463360959</v>
+        <v>2112.0083573313</v>
       </c>
       <c r="P40" t="n">
         <v>2209.907435353829</v>
@@ -7359,25 +7359,25 @@
         <v>2293.09180942793</v>
       </c>
       <c r="S40" t="n">
-        <v>2148.243333477583</v>
+        <v>2293.09180942793</v>
       </c>
       <c r="T40" t="n">
-        <v>1905.892660970112</v>
+        <v>2050.741136920458</v>
       </c>
       <c r="U40" t="n">
-        <v>1905.892660970112</v>
+        <v>1772.35318435119</v>
       </c>
       <c r="V40" t="n">
-        <v>1618.937152840542</v>
+        <v>1485.39767622162</v>
       </c>
       <c r="W40" t="n">
-        <v>1346.910748426834</v>
+        <v>1213.371271807912</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.910748426834</v>
+        <v>967.9795171413245</v>
       </c>
       <c r="Y40" t="n">
-        <v>1119.491077740942</v>
+        <v>740.5598464554328</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>586.5409724141485</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="C41" t="n">
-        <v>586.5409724141485</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="D41" t="n">
-        <v>150.631187588593</v>
+        <v>907.5040106210556</v>
       </c>
       <c r="E41" t="n">
-        <v>150.631187588593</v>
+        <v>473.7292657793508</v>
       </c>
       <c r="F41" t="n">
-        <v>150.631187588593</v>
+        <v>45.86183618855861</v>
       </c>
       <c r="G41" t="n">
         <v>45.86183618855861</v>
@@ -7408,31 +7408,31 @@
         <v>45.86183618855861</v>
       </c>
       <c r="I41" t="n">
-        <v>115.0223243057313</v>
+        <v>115.0223243057314</v>
       </c>
       <c r="J41" t="n">
-        <v>268.179201376652</v>
+        <v>268.1792013766521</v>
       </c>
       <c r="K41" t="n">
-        <v>497.7216582812912</v>
+        <v>497.7216582812913</v>
       </c>
       <c r="L41" t="n">
-        <v>782.4893736039829</v>
+        <v>782.489373603983</v>
       </c>
       <c r="M41" t="n">
-        <v>1099.348325765037</v>
+        <v>1099.348325765038</v>
       </c>
       <c r="N41" t="n">
         <v>1421.334387037893</v>
       </c>
       <c r="O41" t="n">
-        <v>1725.376694248109</v>
+        <v>1725.37669424811</v>
       </c>
       <c r="P41" t="n">
         <v>1984.869769184644</v>
       </c>
       <c r="Q41" t="n">
-        <v>2179.738261607712</v>
+        <v>2179.738261607713</v>
       </c>
       <c r="R41" t="n">
         <v>2293.09180942793</v>
@@ -7441,22 +7441,22 @@
         <v>2251.395484159472</v>
       </c>
       <c r="T41" t="n">
-        <v>2039.387957033282</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="U41" t="n">
-        <v>1780.312947554197</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V41" t="n">
-        <v>1417.695997488023</v>
+        <v>2157.80149911562</v>
       </c>
       <c r="W41" t="n">
-        <v>1012.840542899056</v>
+        <v>1752.946044526653</v>
       </c>
       <c r="X41" t="n">
-        <v>1012.840542899056</v>
+        <v>1333.803581105964</v>
       </c>
       <c r="Y41" t="n">
-        <v>1012.840542899056</v>
+        <v>1333.803581105964</v>
       </c>
     </row>
     <row r="42">
@@ -7508,7 +7508,7 @@
         <v>1261.337067364201</v>
       </c>
       <c r="P42" t="n">
-        <v>1493.076767284748</v>
+        <v>1445.706453784825</v>
       </c>
       <c r="Q42" t="n">
         <v>1616.322819523846</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>403.8927517860992</v>
+        <v>572.8879293551672</v>
       </c>
       <c r="C43" t="n">
-        <v>403.8927517860992</v>
+        <v>572.8879293551672</v>
       </c>
       <c r="D43" t="n">
-        <v>238.0147589876218</v>
+        <v>407.0099365566899</v>
       </c>
       <c r="E43" t="n">
-        <v>68.25675523835909</v>
+        <v>407.0099365566899</v>
       </c>
       <c r="F43" t="n">
-        <v>68.25675523835909</v>
+        <v>407.0099365566899</v>
       </c>
       <c r="G43" t="n">
-        <v>68.25675523835909</v>
+        <v>242.2445448390028</v>
       </c>
       <c r="H43" t="n">
-        <v>45.86183618855861</v>
+        <v>109.6852234824914</v>
       </c>
       <c r="I43" t="n">
         <v>45.86183618855861</v>
       </c>
       <c r="J43" t="n">
-        <v>103.0898224920169</v>
+        <v>189.6695076567068</v>
       </c>
       <c r="K43" t="n">
-        <v>197.1329837313375</v>
+        <v>283.7126688960274</v>
       </c>
       <c r="L43" t="n">
-        <v>317.4758521904808</v>
+        <v>822.2654191231316</v>
       </c>
       <c r="M43" t="n">
-        <v>885.0160750238936</v>
+        <v>1389.805641956544</v>
       </c>
       <c r="N43" t="n">
-        <v>1451.142525532202</v>
+        <v>1513.673289307209</v>
       </c>
       <c r="O43" t="n">
-        <v>1985.223595646008</v>
+        <v>1628.085110195233</v>
       </c>
       <c r="P43" t="n">
-        <v>2083.122673668537</v>
+        <v>2041.714660489497</v>
       </c>
       <c r="Q43" t="n">
         <v>2277.687682472404</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>784.2614907086162</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="C44" t="n">
-        <v>346.1190178920395</v>
+        <v>1813.253011342896</v>
       </c>
       <c r="D44" t="n">
-        <v>346.1190178920395</v>
+        <v>1377.34322651734</v>
       </c>
       <c r="E44" t="n">
-        <v>346.1190178920395</v>
+        <v>943.5684816756352</v>
       </c>
       <c r="F44" t="n">
-        <v>316.1361591901397</v>
+        <v>515.701052084843</v>
       </c>
       <c r="G44" t="n">
-        <v>316.1361591901397</v>
+        <v>116.1443857568268</v>
       </c>
       <c r="H44" t="n">
         <v>45.86183618855861</v>
       </c>
       <c r="I44" t="n">
-        <v>115.0223243057312</v>
+        <v>115.0223243057315</v>
       </c>
       <c r="J44" t="n">
         <v>268.1792013766522</v>
@@ -7681,19 +7681,19 @@
         <v>2251.395484159472</v>
       </c>
       <c r="U44" t="n">
-        <v>1992.320474680387</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="V44" t="n">
-        <v>1629.703524614213</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="W44" t="n">
-        <v>1629.703524614213</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="X44" t="n">
-        <v>1210.561061193524</v>
+        <v>2251.395484159472</v>
       </c>
       <c r="Y44" t="n">
-        <v>1210.561061193524</v>
+        <v>2251.395484159472</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>45.86183618855861</v>
       </c>
       <c r="I45" t="n">
-        <v>79.1040540993927</v>
+        <v>105.1677272598503</v>
       </c>
       <c r="J45" t="n">
-        <v>170.323240853186</v>
+        <v>217.6935543531096</v>
       </c>
       <c r="K45" t="n">
         <v>373.6016736936418</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.914698659449</v>
+        <v>909.7003750412591</v>
       </c>
       <c r="C46" t="n">
-        <v>919.3529871426737</v>
+        <v>737.1386635244841</v>
       </c>
       <c r="D46" t="n">
-        <v>753.4749943441964</v>
+        <v>737.1386635244841</v>
       </c>
       <c r="E46" t="n">
-        <v>583.7169905949337</v>
+        <v>567.3806597752214</v>
       </c>
       <c r="F46" t="n">
         <v>407.0099365566899</v>
@@ -7806,25 +7806,25 @@
         <v>45.86183618855861</v>
       </c>
       <c r="J46" t="n">
-        <v>103.0898224920169</v>
+        <v>189.6695076567068</v>
       </c>
       <c r="K46" t="n">
-        <v>471.8914383024731</v>
+        <v>283.7126688960274</v>
       </c>
       <c r="L46" t="n">
-        <v>1010.444188529577</v>
+        <v>404.0555373551707</v>
       </c>
       <c r="M46" t="n">
-        <v>1137.328870004508</v>
+        <v>971.5957601885834</v>
       </c>
       <c r="N46" t="n">
-        <v>1409.734512353162</v>
+        <v>1537.722210696892</v>
       </c>
       <c r="O46" t="n">
-        <v>1943.815582466968</v>
+        <v>2071.803280810698</v>
       </c>
       <c r="P46" t="n">
-        <v>2041.714660489497</v>
+        <v>2209.907435353829</v>
       </c>
       <c r="Q46" t="n">
         <v>2277.687682472404</v>
@@ -7836,22 +7836,22 @@
         <v>2148.243333477583</v>
       </c>
       <c r="T46" t="n">
-        <v>2148.243333477583</v>
+        <v>1905.892660970112</v>
       </c>
       <c r="U46" t="n">
-        <v>1869.855380908315</v>
+        <v>1905.892660970112</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.899872778745</v>
+        <v>1618.937152840542</v>
       </c>
       <c r="W46" t="n">
-        <v>1511.152988064328</v>
+        <v>1346.910748426834</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.152988064328</v>
+        <v>1101.518993760246</v>
       </c>
       <c r="Y46" t="n">
-        <v>1283.733317378436</v>
+        <v>1101.518993760246</v>
       </c>
     </row>
   </sheetData>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>47.84880151507423</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>47.84880151507377</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>186.9857284598463</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>445.1066074328107</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>135.4754192815553</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>47.84880151507423</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>128.0654158437292</v>
       </c>
       <c r="M16" t="n">
         <v>445.1066074328108</v>
       </c>
       <c r="N16" t="n">
-        <v>136.3201875837424</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>403.2803314943862</v>
+        <v>445.1066074328108</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>129.5395243869821</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>47.84880151507423</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>52.26326687787946</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>445.1066074328108</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>129.5395243869821</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>816.6373020961819</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>839.4324630874844</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>422.957469895262</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>21.52185892875349</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>47.84880151507423</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>211.6926526302204</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9807,13 +9807,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>366.3219644254316</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>47.84880151507429</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>21.52185892875332</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>269.1388567030847</v>
       </c>
       <c r="M28" t="n">
-        <v>217.1586056643291</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>270.7197578196027</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>435.4810180501831</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,10 +10278,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>217.1586056643291</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>406.5387502386957</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>270.7197578196027</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>270.7197578196028</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>47.84880151507423</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.56727979586708</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>283.1098120217551</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>21.52185892875332</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,13 +10749,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>222.1549586600333</v>
       </c>
       <c r="M37" t="n">
-        <v>445.1066074328108</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>53.88272324066918</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>47.84880151507437</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.52185892875332</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>128.0654158437289</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>445.1066074328107</v>
       </c>
       <c r="N40" t="n">
-        <v>305.3671110637094</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>47.84880151507423</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>445.1066074328108</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>318.9196689613482</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.0654158437296</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>21.52185892875355</v>
       </c>
       <c r="K45" t="n">
-        <v>47.84880151507434</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>445.1066074328108</v>
       </c>
       <c r="N46" t="n">
-        <v>150.0383787858486</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>40.6111884046486</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.4550427595096</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.8874518549281</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>51.19843922608425</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>152.3447767594415</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>63.18515342099343</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>39.51915499189226</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>204.7422939186298</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4842593842947</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>285.0934498492569</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>144.5358385229698</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>143.3999911908438</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>163.0345265337414</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>196.8040699308651</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>67.91839962667569</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23800,7 +23800,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>63.75535063370148</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>28.50843006180452</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,16 +23943,16 @@
         <v>143.3999911908438</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.9271657823968</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>209.8874518549281</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V20" t="n">
-        <v>306.1305180955533</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>330.567427813446</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3224474402015574</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H22" t="n">
-        <v>131.2337281429463</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>143.3999911908438</v>
+        <v>14.90825862023618</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>81.60366950418569</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>18.55787528963873</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>189.4276361989958</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.043763092398024</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>131.7435082823588</v>
       </c>
       <c r="V29" t="n">
-        <v>9.043763092398194</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.3243074884121</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>173.0228702981325</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>107.353579737009</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.5715797715652</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.27936201577355</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>256.4842593842947</v>
       </c>
       <c r="V35" t="n">
-        <v>52.94393447010333</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>143.3999911908438</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>15.98590397883012</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>262.1376631701971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>237.3393557338632</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>193.3347049911791</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25405,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.5715797715652</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>41.27936201577355</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.98590397883069</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>162.599817241119</v>
+        <v>163.1177378005102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.2337281429463</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>63.18515342099344</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>143.3999911908438</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6040730435755</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,16 +25633,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>291.839441778702</v>
+        <v>395.561099664736</v>
       </c>
       <c r="H41" t="n">
         <v>267.5715797715652</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8874518549281</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>266.3327353720977</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>167.3052257933774</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.1177378005102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.0627582836438</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>63.18515342099344</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>393.9057251800035</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.561099664736</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>197.9918556989797</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>209.8874518549281</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4842593842947</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>16.1729675115152</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.9271657823968</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6040730435755</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>198.2767245022978</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>277081.2668700557</v>
+        <v>277081.2668700558</v>
       </c>
     </row>
     <row r="6">
@@ -26319,19 +26319,19 @@
         <v>471046.1696008124</v>
       </c>
       <c r="D2" t="n">
-        <v>471046.1696008124</v>
+        <v>471046.1696008125</v>
       </c>
       <c r="E2" t="n">
-        <v>276874.1004563949</v>
+        <v>276874.100456395</v>
       </c>
       <c r="F2" t="n">
         <v>276874.100456395</v>
       </c>
       <c r="G2" t="n">
-        <v>276874.1004563948</v>
+        <v>276874.100456395</v>
       </c>
       <c r="H2" t="n">
-        <v>276874.1004563949</v>
+        <v>276874.100456395</v>
       </c>
       <c r="I2" t="n">
         <v>450968.4014983744</v>
@@ -26340,19 +26340,19 @@
         <v>450968.4014983744</v>
       </c>
       <c r="K2" t="n">
-        <v>450968.4014983744</v>
+        <v>450968.4014983742</v>
       </c>
       <c r="L2" t="n">
         <v>450968.4014983744</v>
       </c>
       <c r="M2" t="n">
-        <v>276874.100456395</v>
+        <v>276874.1004563948</v>
       </c>
       <c r="N2" t="n">
-        <v>276874.100456395</v>
+        <v>276874.1004563948</v>
       </c>
       <c r="O2" t="n">
-        <v>276874.100456395</v>
+        <v>276874.1004563949</v>
       </c>
       <c r="P2" t="n">
         <v>276874.100456395</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>535437.5717334305</v>
+        <v>535437.5717334306</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.54919452186</v>
+        <v>16046.54919452185</v>
       </c>
       <c r="F4" t="n">
         <v>16046.54919452186</v>
@@ -26438,16 +26438,16 @@
         <v>16046.54919452186</v>
       </c>
       <c r="I4" t="n">
-        <v>100223.0157618838</v>
+        <v>100223.0157618839</v>
       </c>
       <c r="J4" t="n">
-        <v>100223.0157618838</v>
+        <v>100223.0157618839</v>
       </c>
       <c r="K4" t="n">
         <v>100223.0157618838</v>
       </c>
       <c r="L4" t="n">
-        <v>100223.0157618839</v>
+        <v>100223.0157618838</v>
       </c>
       <c r="M4" t="n">
         <v>16046.54919452186</v>
@@ -26505,7 +26505,7 @@
         <v>44739.33149357095</v>
       </c>
       <c r="N5" t="n">
-        <v>44739.33149357095</v>
+        <v>44739.33149357094</v>
       </c>
       <c r="O5" t="n">
         <v>44739.33149357095</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="C6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="D6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="E6" t="n">
-        <v>-319349.3519651284</v>
+        <v>-319920.6255413645</v>
       </c>
       <c r="F6" t="n">
-        <v>216088.2197683022</v>
+        <v>215516.9461920662</v>
       </c>
       <c r="G6" t="n">
-        <v>216088.219768302</v>
+        <v>215516.9461920661</v>
       </c>
       <c r="H6" t="n">
-        <v>216088.2197683021</v>
+        <v>215516.9461920661</v>
       </c>
       <c r="I6" t="n">
-        <v>118705.7419758938</v>
+        <v>118618.06368033</v>
       </c>
       <c r="J6" t="n">
-        <v>271151.058739615</v>
+        <v>271063.3804440512</v>
       </c>
       <c r="K6" t="n">
-        <v>271151.058739615</v>
+        <v>271063.3804440511</v>
       </c>
       <c r="L6" t="n">
-        <v>271151.058739615</v>
+        <v>271063.3804440512</v>
       </c>
       <c r="M6" t="n">
-        <v>216088.2197683022</v>
+        <v>215516.946192066</v>
       </c>
       <c r="N6" t="n">
-        <v>216088.2197683022</v>
+        <v>215516.946192066</v>
       </c>
       <c r="O6" t="n">
-        <v>216088.2197683022</v>
+        <v>215516.9461920661</v>
       </c>
       <c r="P6" t="n">
-        <v>216088.2197683022</v>
+        <v>215516.9461920661</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>453.4099078103857</v>
+        <v>453.4099078103858</v>
       </c>
       <c r="F3" t="n">
-        <v>453.4099078103857</v>
+        <v>453.4099078103858</v>
       </c>
       <c r="G3" t="n">
         <v>453.4099078103857</v>
@@ -26825,7 +26825,7 @@
         <v>573.2729523569826</v>
       </c>
       <c r="N4" t="n">
-        <v>573.2729523569826</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="O4" t="n">
         <v>573.2729523569826</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>453.4099078103857</v>
+        <v>453.4099078103858</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.822753398232705</v>
+        <v>1.822753398232706</v>
       </c>
       <c r="H11" t="n">
         <v>18.6672732396507</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536644</v>
       </c>
       <c r="J11" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K11" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916079</v>
       </c>
       <c r="M11" t="n">
-        <v>320.0595476374287</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N11" t="n">
-        <v>325.2384457301574</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O11" t="n">
-        <v>307.1134416264809</v>
+        <v>307.113441626481</v>
       </c>
       <c r="P11" t="n">
-        <v>262.114217107611</v>
+        <v>262.1142171076111</v>
       </c>
       <c r="Q11" t="n">
         <v>196.8368610334022</v>
@@ -31788,10 +31788,10 @@
         <v>114.4985331517353</v>
       </c>
       <c r="S11" t="n">
-        <v>41.53599306222781</v>
+        <v>41.53599306222782</v>
       </c>
       <c r="T11" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763673</v>
       </c>
       <c r="U11" t="n">
         <v>0.1458202718586164</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883772</v>
       </c>
       <c r="H12" t="n">
-        <v>9.418949216966695</v>
+        <v>9.418949216966697</v>
       </c>
       <c r="I12" t="n">
-        <v>33.5779978897314</v>
+        <v>33.57799788973141</v>
       </c>
       <c r="J12" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K12" t="n">
         <v>157.4829488288205</v>
@@ -31852,28 +31852,28 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N12" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O12" t="n">
-        <v>232.0389364999056</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P12" t="n">
-        <v>186.2317034551752</v>
+        <v>186.2317034551753</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.4909618576742</v>
+        <v>124.4909618576743</v>
       </c>
       <c r="R12" t="n">
-        <v>60.5516099524889</v>
+        <v>60.55160995248891</v>
       </c>
       <c r="S12" t="n">
-        <v>18.11500905261304</v>
+        <v>18.11500905261305</v>
       </c>
       <c r="T12" t="n">
         <v>3.930978351676834</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06416177940713008</v>
+        <v>0.0641617794071301</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203678</v>
       </c>
       <c r="H13" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582912</v>
       </c>
       <c r="I13" t="n">
-        <v>24.58819631207797</v>
+        <v>24.58819631207798</v>
       </c>
       <c r="J13" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K13" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092999</v>
       </c>
       <c r="L13" t="n">
         <v>121.5584529890336</v>
@@ -31931,28 +31931,28 @@
         <v>128.1663449241718</v>
       </c>
       <c r="N13" t="n">
-        <v>125.1188357077414</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O13" t="n">
         <v>115.5674958464898</v>
       </c>
       <c r="P13" t="n">
-        <v>98.88795759851425</v>
+        <v>98.88795759851426</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936826</v>
       </c>
       <c r="R13" t="n">
-        <v>36.76336727918306</v>
+        <v>36.76336727918307</v>
       </c>
       <c r="S13" t="n">
-        <v>14.24896382413949</v>
+        <v>14.2489638241395</v>
       </c>
       <c r="T13" t="n">
-        <v>3.493486174932479</v>
+        <v>3.49348617493248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04459769585020192</v>
+        <v>0.04459769585020194</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,22 +31995,22 @@
         <v>18.6672732396507</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27170038536643</v>
+        <v>70.27170038536644</v>
       </c>
       <c r="J14" t="n">
         <v>154.7039162332532</v>
       </c>
       <c r="K14" t="n">
-        <v>231.8610675804436</v>
+        <v>231.8610675804437</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916079</v>
       </c>
       <c r="M14" t="n">
-        <v>320.0595476374287</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N14" t="n">
-        <v>325.2384457301574</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O14" t="n">
         <v>307.1134416264809</v>
@@ -32025,10 +32025,10 @@
         <v>114.4985331517353</v>
       </c>
       <c r="S14" t="n">
-        <v>41.53599306222781</v>
+        <v>41.53599306222782</v>
       </c>
       <c r="T14" t="n">
-        <v>7.97910300076367</v>
+        <v>7.979103000763671</v>
       </c>
       <c r="U14" t="n">
         <v>0.1458202718586164</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9752590469883768</v>
+        <v>0.9752590469883771</v>
       </c>
       <c r="H15" t="n">
         <v>9.418949216966695</v>
       </c>
       <c r="I15" t="n">
-        <v>33.5779978897314</v>
+        <v>33.57799788973141</v>
       </c>
       <c r="J15" t="n">
-        <v>92.14059268059926</v>
+        <v>92.14059268059927</v>
       </c>
       <c r="K15" t="n">
         <v>157.4829488288205</v>
@@ -32089,13 +32089,13 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N15" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O15" t="n">
         <v>232.0389364999056</v>
       </c>
       <c r="P15" t="n">
-        <v>186.2317034551752</v>
+        <v>186.2317034551753</v>
       </c>
       <c r="Q15" t="n">
         <v>124.4909618576742</v>
@@ -32110,7 +32110,7 @@
         <v>3.930978351676834</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06416177940713008</v>
+        <v>0.0641617794071301</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8176244239203676</v>
+        <v>0.8176244239203677</v>
       </c>
       <c r="H16" t="n">
-        <v>7.26942442358291</v>
+        <v>7.269424423582911</v>
       </c>
       <c r="I16" t="n">
-        <v>24.58819631207797</v>
+        <v>24.58819631207798</v>
       </c>
       <c r="J16" t="n">
-        <v>57.80604677116999</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K16" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092998</v>
       </c>
       <c r="L16" t="n">
         <v>121.5584529890336</v>
@@ -32168,7 +32168,7 @@
         <v>128.1663449241718</v>
       </c>
       <c r="N16" t="n">
-        <v>125.1188357077414</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O16" t="n">
         <v>115.5674958464898</v>
@@ -32177,10 +32177,10 @@
         <v>98.88795759851425</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.46489607936824</v>
+        <v>68.46489607936826</v>
       </c>
       <c r="R16" t="n">
-        <v>36.76336727918306</v>
+        <v>36.76336727918307</v>
       </c>
       <c r="S16" t="n">
         <v>14.24896382413949</v>
@@ -32189,7 +32189,7 @@
         <v>3.493486174932479</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04459769585020192</v>
+        <v>0.04459769585020193</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623504</v>
       </c>
       <c r="J11" t="n">
         <v>154.7039162332532</v>
@@ -35415,13 +35415,13 @@
         <v>231.8610675804437</v>
       </c>
       <c r="L11" t="n">
-        <v>287.6441568916078</v>
+        <v>287.644156891608</v>
       </c>
       <c r="M11" t="n">
-        <v>320.0595476374288</v>
+        <v>320.0595476374285</v>
       </c>
       <c r="N11" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O11" t="n">
         <v>307.1134416264811</v>
@@ -35430,10 +35430,10 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.8368610334023</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R11" t="n">
-        <v>114.498533151735</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N12" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042272</v>
       </c>
       <c r="O12" t="n">
-        <v>279.88773801498</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P12" t="n">
-        <v>186.2317034551752</v>
+        <v>186.2317034551754</v>
       </c>
       <c r="Q12" t="n">
         <v>124.4909618576742</v>
       </c>
       <c r="R12" t="n">
-        <v>60.55160995248889</v>
+        <v>108.4004114675627</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,28 +35570,28 @@
         <v>145.2602742102507</v>
       </c>
       <c r="K13" t="n">
-        <v>372.5268846570265</v>
+        <v>372.5268846570266</v>
       </c>
       <c r="L13" t="n">
-        <v>308.54418144888</v>
+        <v>543.9926769970751</v>
       </c>
       <c r="M13" t="n">
-        <v>573.2729523569826</v>
+        <v>128.1663449241719</v>
       </c>
       <c r="N13" t="n">
-        <v>571.844899503342</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O13" t="n">
-        <v>115.5674958464899</v>
+        <v>251.0429151280453</v>
       </c>
       <c r="P13" t="n">
-        <v>98.88795759851428</v>
+        <v>449.9050222150211</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.46489607936837</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R13" t="n">
-        <v>15.55972419750123</v>
+        <v>15.55972419750124</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.85907890623503</v>
+        <v>69.85907890623504</v>
       </c>
       <c r="J14" t="n">
-        <v>154.7039162332532</v>
+        <v>154.7039162332533</v>
       </c>
       <c r="K14" t="n">
         <v>231.8610675804437</v>
       </c>
       <c r="L14" t="n">
-        <v>287.6441568916077</v>
+        <v>287.644156891608</v>
       </c>
       <c r="M14" t="n">
-        <v>320.0595476374285</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N14" t="n">
         <v>325.2384457301575</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>33.5779978897314</v>
+        <v>59.90494047605223</v>
       </c>
       <c r="J15" t="n">
         <v>92.14059268059927</v>
@@ -35737,7 +35737,7 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N15" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O15" t="n">
         <v>232.0389364999057</v>
@@ -35746,10 +35746,10 @@
         <v>186.2317034551752</v>
       </c>
       <c r="Q15" t="n">
-        <v>172.3397633727484</v>
+        <v>124.4909618576742</v>
       </c>
       <c r="R15" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K16" t="n">
-        <v>94.99309216092996</v>
+        <v>94.99309216092998</v>
       </c>
       <c r="L16" t="n">
-        <v>121.5584529890336</v>
+        <v>249.6238688327628</v>
       </c>
       <c r="M16" t="n">
         <v>573.2729523569826</v>
       </c>
       <c r="N16" t="n">
-        <v>261.4390232914839</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O16" t="n">
         <v>539.4758283977842</v>
       </c>
       <c r="P16" t="n">
-        <v>449.9050222150211</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q16" t="n">
         <v>68.46489607936837</v>
       </c>
       <c r="R16" t="n">
-        <v>15.55972419750123</v>
+        <v>15.55972419750124</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>287.6441568916078</v>
       </c>
       <c r="M17" t="n">
-        <v>320.0595476374293</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N17" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O17" t="n">
         <v>307.1134416264808</v>
@@ -35904,7 +35904,7 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q17" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334026</v>
       </c>
       <c r="R17" t="n">
         <v>114.498533151735</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>33.5779978897314</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J18" t="n">
         <v>92.14059268059927</v>
       </c>
       <c r="K18" t="n">
-        <v>205.3317503438948</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L18" t="n">
         <v>211.7552593033316</v>
@@ -35977,7 +35977,7 @@
         <v>253.6486238042271</v>
       </c>
       <c r="O18" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P18" t="n">
         <v>186.2317034551752</v>
@@ -35986,7 +35986,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R18" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>94.99309216092996</v>
       </c>
       <c r="L19" t="n">
-        <v>121.5584529890336</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M19" t="n">
-        <v>531.446676418558</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N19" t="n">
         <v>571.844899503342</v>
       </c>
       <c r="O19" t="n">
-        <v>539.4758283977842</v>
+        <v>245.107020233472</v>
       </c>
       <c r="P19" t="n">
         <v>98.88795759851428</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R19" t="n">
         <v>15.55972419750123</v>
@@ -36129,22 +36129,22 @@
         <v>287.6441568916078</v>
       </c>
       <c r="M20" t="n">
-        <v>320.0595476374288</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N20" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O20" t="n">
-        <v>307.1134416264811</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P20" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q20" t="n">
-        <v>196.8368610334023</v>
+        <v>196.8368610334021</v>
       </c>
       <c r="R20" t="n">
-        <v>114.498533151735</v>
+        <v>114.4985331517355</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>92.14059268059927</v>
       </c>
       <c r="K21" t="n">
-        <v>205.3317503438948</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L21" t="n">
         <v>211.7552593033316</v>
@@ -36211,10 +36211,10 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6486238042271</v>
+        <v>253.648623804227</v>
       </c>
       <c r="O21" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P21" t="n">
         <v>186.2317034551752</v>
@@ -36223,7 +36223,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R21" t="n">
-        <v>60.55160995248889</v>
+        <v>108.4004114675631</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>94.99309216092996</v>
       </c>
       <c r="L22" t="n">
-        <v>173.821719866913</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M22" t="n">
-        <v>128.1663449241718</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N22" t="n">
         <v>571.844899503342</v>
       </c>
       <c r="O22" t="n">
-        <v>539.4758283977842</v>
+        <v>245.107020233472</v>
       </c>
       <c r="P22" t="n">
-        <v>449.9050222150211</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R22" t="n">
         <v>15.55972419750123</v>
@@ -36357,28 +36357,28 @@
         <v>69.85907890623503</v>
       </c>
       <c r="J23" t="n">
-        <v>154.7039162332532</v>
+        <v>594.355115680645</v>
       </c>
       <c r="K23" t="n">
-        <v>231.8610675804437</v>
+        <v>1074.639140265472</v>
       </c>
       <c r="L23" t="n">
-        <v>287.6441568916078</v>
+        <v>1104.28145898779</v>
       </c>
       <c r="M23" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N23" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O23" t="n">
-        <v>1146.545904713965</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P23" t="n">
-        <v>1098.790858353466</v>
+        <v>262.1142171076108</v>
       </c>
       <c r="Q23" t="n">
-        <v>619.7943309286643</v>
+        <v>196.8368610334019</v>
       </c>
       <c r="R23" t="n">
         <v>285.3612248214895</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>33.57799788973141</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J24" t="n">
         <v>92.14059268059927</v>
       </c>
       <c r="K24" t="n">
-        <v>157.4829488288205</v>
+        <v>179.004807757574</v>
       </c>
       <c r="L24" t="n">
         <v>211.7552593033316</v>
@@ -36448,16 +36448,16 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N24" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O24" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P24" t="n">
         <v>186.2317034551752</v>
       </c>
       <c r="Q24" t="n">
-        <v>172.3397633727484</v>
+        <v>124.4909618576742</v>
       </c>
       <c r="R24" t="n">
         <v>60.55160995248889</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>57.80604677116999</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K25" t="n">
-        <v>306.6857447911504</v>
+        <v>372.5268846570265</v>
       </c>
       <c r="L25" t="n">
-        <v>543.992676997075</v>
+        <v>543.9926769970749</v>
       </c>
       <c r="M25" t="n">
         <v>592.2914632887305</v>
       </c>
       <c r="N25" t="n">
-        <v>571.844899503342</v>
+        <v>491.4408001331731</v>
       </c>
       <c r="O25" t="n">
-        <v>539.475828397784</v>
+        <v>115.5674958464897</v>
       </c>
       <c r="P25" t="n">
-        <v>98.88795759851428</v>
+        <v>449.9050222150208</v>
       </c>
       <c r="Q25" t="n">
         <v>238.3565878615223</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>59.9049404760522</v>
+        <v>33.57799788973141</v>
       </c>
       <c r="J27" t="n">
-        <v>92.14059268059927</v>
+        <v>139.9893941956736</v>
       </c>
       <c r="K27" t="n">
         <v>157.4829488288205</v>
@@ -36688,7 +36688,7 @@
         <v>253.6486238042271</v>
       </c>
       <c r="O27" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P27" t="n">
         <v>186.2317034551752</v>
@@ -36697,7 +36697,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R27" t="n">
-        <v>82.07346888124221</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>57.80604677116999</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K28" t="n">
         <v>372.5268846570265</v>
       </c>
       <c r="L28" t="n">
-        <v>543.992676997075</v>
+        <v>390.6973096921182</v>
       </c>
       <c r="M28" t="n">
-        <v>345.324950588501</v>
+        <v>592.2914632887305</v>
       </c>
       <c r="N28" t="n">
         <v>571.844899503342</v>
       </c>
       <c r="O28" t="n">
-        <v>539.4758283977842</v>
+        <v>539.475828397784</v>
       </c>
       <c r="P28" t="n">
-        <v>449.9050222150213</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.46489607936837</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R28" t="n">
         <v>15.55972419750123</v>
@@ -36834,28 +36834,28 @@
         <v>594.355115680645</v>
       </c>
       <c r="K29" t="n">
-        <v>1074.639140265472</v>
+        <v>502.5808254000464</v>
       </c>
       <c r="L29" t="n">
-        <v>287.644156891608</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M29" t="n">
         <v>320.0595476374288</v>
       </c>
       <c r="N29" t="n">
-        <v>325.2384457301578</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O29" t="n">
-        <v>742.594459676664</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P29" t="n">
-        <v>262.1142171076108</v>
+        <v>1098.790858353466</v>
       </c>
       <c r="Q29" t="n">
         <v>748.8558367491542</v>
       </c>
       <c r="R29" t="n">
-        <v>114.4985331517355</v>
+        <v>285.3612248214895</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>57.80604677116999</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K31" t="n">
         <v>372.5268846570265</v>
       </c>
       <c r="L31" t="n">
-        <v>543.992676997075</v>
+        <v>543.9926769970749</v>
       </c>
       <c r="M31" t="n">
-        <v>345.324950588501</v>
+        <v>128.1663449241719</v>
       </c>
       <c r="N31" t="n">
-        <v>571.844899503342</v>
+        <v>531.6575859464372</v>
       </c>
       <c r="O31" t="n">
         <v>539.4758283977842</v>
       </c>
       <c r="P31" t="n">
-        <v>449.9050222150213</v>
+        <v>449.9050222150208</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.46489607936837</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R31" t="n">
         <v>15.55972419750123</v>
@@ -37071,19 +37071,19 @@
         <v>594.355115680645</v>
       </c>
       <c r="K32" t="n">
-        <v>231.8610675804437</v>
+        <v>502.5808254000464</v>
       </c>
       <c r="L32" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M32" t="n">
         <v>320.0595476374288</v>
       </c>
       <c r="N32" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O32" t="n">
-        <v>577.8331994460837</v>
+        <v>307.1134416264808</v>
       </c>
       <c r="P32" t="n">
         <v>1098.790858353466</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>33.57799788973141</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J33" t="n">
         <v>92.14059268059927</v>
@@ -37159,19 +37159,19 @@
         <v>247.1083997566602</v>
       </c>
       <c r="N33" t="n">
-        <v>253.648623804227</v>
+        <v>253.6486238042271</v>
       </c>
       <c r="O33" t="n">
         <v>232.0389364999057</v>
       </c>
       <c r="P33" t="n">
-        <v>234.0805049702494</v>
+        <v>186.2317034551752</v>
       </c>
       <c r="Q33" t="n">
         <v>124.4909618576742</v>
       </c>
       <c r="R33" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>57.80604677116999</v>
+        <v>88.37332656703707</v>
       </c>
       <c r="K34" t="n">
         <v>94.99309216092996</v>
       </c>
       <c r="L34" t="n">
-        <v>404.6682650107887</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M34" t="n">
         <v>592.2914632887305</v>
@@ -37244,10 +37244,10 @@
         <v>539.4758283977842</v>
       </c>
       <c r="P34" t="n">
-        <v>449.9050222150208</v>
+        <v>449.9050222150213</v>
       </c>
       <c r="Q34" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R34" t="n">
         <v>15.55972419750123</v>
@@ -37305,19 +37305,19 @@
         <v>69.85907890623503</v>
       </c>
       <c r="J35" t="n">
-        <v>154.7039162332532</v>
+        <v>154.7039162332535</v>
       </c>
       <c r="K35" t="n">
         <v>231.8610675804437</v>
       </c>
       <c r="L35" t="n">
-        <v>287.6441568916084</v>
+        <v>287.6441568916078</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0595476374288</v>
+        <v>320.0595476374286</v>
       </c>
       <c r="N35" t="n">
-        <v>325.2384457301573</v>
+        <v>325.2384457301575</v>
       </c>
       <c r="O35" t="n">
         <v>307.1134416264808</v>
@@ -37326,7 +37326,7 @@
         <v>262.114217107611</v>
       </c>
       <c r="Q35" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R35" t="n">
         <v>114.498533151735</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>33.5779978897314</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J36" t="n">
         <v>92.14059268059927</v>
@@ -37393,13 +37393,13 @@
         <v>211.7552593033316</v>
       </c>
       <c r="M36" t="n">
-        <v>294.9572012717346</v>
+        <v>247.1083997566602</v>
       </c>
       <c r="N36" t="n">
         <v>253.6486238042271</v>
       </c>
       <c r="O36" t="n">
-        <v>232.0389364999055</v>
+        <v>232.0389364999057</v>
       </c>
       <c r="P36" t="n">
         <v>186.2317034551752</v>
@@ -37408,7 +37408,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R36" t="n">
-        <v>60.55160995248889</v>
+        <v>82.07346888124221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,13 +37469,13 @@
         <v>94.99309216092996</v>
       </c>
       <c r="L37" t="n">
-        <v>121.5584529890336</v>
+        <v>343.7134116490669</v>
       </c>
       <c r="M37" t="n">
-        <v>573.2729523569826</v>
+        <v>128.1663449241718</v>
       </c>
       <c r="N37" t="n">
-        <v>179.0015589484107</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O37" t="n">
         <v>539.4758283977842</v>
@@ -37484,7 +37484,7 @@
         <v>449.9050222150211</v>
       </c>
       <c r="Q37" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R37" t="n">
         <v>15.55972419750123</v>
@@ -37548,10 +37548,10 @@
         <v>231.8610675804437</v>
       </c>
       <c r="L38" t="n">
-        <v>287.6441568916078</v>
+        <v>287.6441568916077</v>
       </c>
       <c r="M38" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374285</v>
       </c>
       <c r="N38" t="n">
         <v>325.2384457301575</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>59.9049404760522</v>
+        <v>33.5779978897314</v>
       </c>
       <c r="J39" t="n">
-        <v>92.14059268059927</v>
+        <v>139.9893941956736</v>
       </c>
       <c r="K39" t="n">
         <v>157.4829488288205</v>
@@ -37636,7 +37636,7 @@
         <v>253.6486238042271</v>
       </c>
       <c r="O39" t="n">
-        <v>232.0389364999057</v>
+        <v>232.0389364999055</v>
       </c>
       <c r="P39" t="n">
         <v>186.2317034551752</v>
@@ -37645,7 +37645,7 @@
         <v>124.4909618576742</v>
       </c>
       <c r="R39" t="n">
-        <v>82.07346888124221</v>
+        <v>60.55160995248889</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>145.2602742102507</v>
+        <v>57.80604677117</v>
       </c>
       <c r="K40" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L40" t="n">
-        <v>543.992676997075</v>
+        <v>249.6238688327625</v>
       </c>
       <c r="M40" t="n">
-        <v>128.1663449241719</v>
+        <v>573.2729523569825</v>
       </c>
       <c r="N40" t="n">
-        <v>430.4859467714509</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O40" t="n">
-        <v>115.5674958464899</v>
+        <v>539.4758283977842</v>
       </c>
       <c r="P40" t="n">
-        <v>449.9050222150211</v>
+        <v>98.88795759851428</v>
       </c>
       <c r="Q40" t="n">
         <v>68.46489607936837</v>
@@ -37788,22 +37788,22 @@
         <v>287.6441568916078</v>
       </c>
       <c r="M41" t="n">
-        <v>320.0595476374286</v>
+        <v>320.0595476374288</v>
       </c>
       <c r="N41" t="n">
-        <v>325.2384457301575</v>
+        <v>325.2384457301573</v>
       </c>
       <c r="O41" t="n">
-        <v>307.1134416264808</v>
+        <v>307.1134416264811</v>
       </c>
       <c r="P41" t="n">
         <v>262.114217107611</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.8368610334021</v>
+        <v>196.8368610334023</v>
       </c>
       <c r="R41" t="n">
-        <v>114.4985331517355</v>
+        <v>114.498533151735</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>232.0389364999057</v>
       </c>
       <c r="P42" t="n">
-        <v>234.0805049702494</v>
+        <v>186.2317034551752</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.4909618576742</v>
+        <v>172.3397633727484</v>
       </c>
       <c r="R42" t="n">
         <v>60.55160995248889</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>57.80604677116998</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K43" t="n">
         <v>94.99309216092996</v>
       </c>
       <c r="L43" t="n">
-        <v>121.5584529890336</v>
+        <v>543.992676997075</v>
       </c>
       <c r="M43" t="n">
         <v>573.2729523569826</v>
       </c>
       <c r="N43" t="n">
-        <v>571.8448995033419</v>
+        <v>125.1188357077415</v>
       </c>
       <c r="O43" t="n">
-        <v>539.4758283977842</v>
+        <v>115.5674958464899</v>
       </c>
       <c r="P43" t="n">
-        <v>98.88795759851405</v>
+        <v>417.8076265598625</v>
       </c>
       <c r="Q43" t="n">
-        <v>196.530311923098</v>
+        <v>238.3565878615223</v>
       </c>
       <c r="R43" t="n">
         <v>15.55972419750123</v>
@@ -38016,7 +38016,7 @@
         <v>69.85907890623503</v>
       </c>
       <c r="J44" t="n">
-        <v>154.7039162332535</v>
+        <v>154.7039162332532</v>
       </c>
       <c r="K44" t="n">
         <v>231.8610675804437</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>33.5779978897314</v>
+        <v>59.9049404760522</v>
       </c>
       <c r="J45" t="n">
-        <v>92.14059268059927</v>
+        <v>113.6624516093528</v>
       </c>
       <c r="K45" t="n">
-        <v>205.3317503438948</v>
+        <v>157.4829488288205</v>
       </c>
       <c r="L45" t="n">
         <v>211.7552593033316</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>57.80604677116998</v>
+        <v>145.2602742102507</v>
       </c>
       <c r="K46" t="n">
-        <v>372.5268846570265</v>
+        <v>94.99309216092996</v>
       </c>
       <c r="L46" t="n">
-        <v>543.992676997075</v>
+        <v>121.5584529890336</v>
       </c>
       <c r="M46" t="n">
-        <v>128.1663449241719</v>
+        <v>573.2729523569826</v>
       </c>
       <c r="N46" t="n">
-        <v>275.1572144935901</v>
+        <v>571.844899503342</v>
       </c>
       <c r="O46" t="n">
         <v>539.4758283977842</v>
       </c>
       <c r="P46" t="n">
-        <v>98.88795759851428</v>
+        <v>139.4991460031629</v>
       </c>
       <c r="Q46" t="n">
-        <v>238.3565878615223</v>
+        <v>68.46489607936837</v>
       </c>
       <c r="R46" t="n">
         <v>15.55972419750123</v>
